--- a/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>58,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>138,3%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,72%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 0,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,87; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,87; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,24</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>18,68</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 78,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 364,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,79; 66,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 28,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,0; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 265,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 40,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-16,76</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-7,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,33; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,33; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1014,22 +1014,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,0%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,04; 30,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,73; 53,76</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 29,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 15,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 41,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 18,32</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,08%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; 14,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 17,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 0,0</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 14,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 6,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 6,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 18,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 6,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 78,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 363,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 28,42</t>
+          <t>-18,92; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 40,36</t>
+          <t>-18,92; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,45</t>
+          <t>0,0; 78,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 0,0</t>
+          <t>-18,42; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,19 +662,19 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 363,97</t>
+          <t>0,0; 356,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 0,0</t>
+          <t>-18,42; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 0,0</t>
+          <t>-15,83; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,16</t>
+          <t>0,0; 35,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 0,0</t>
+          <t>-15,83; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,24</t>
+          <t>0,0; 54,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 364,57</t>
+          <t>0,0; 364,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 66,43</t>
+          <t>-20,24; 72,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 0,0</t>
+          <t>-18,55; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 0,0</t>
+          <t>-13,13; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 265,0</t>
+          <t>-21,29; 274,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 0,0</t>
+          <t>-18,55; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 0,0</t>
+          <t>-13,13; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 0,0</t>
+          <t>-51,78; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 0,0</t>
+          <t>-21,21; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 0,0</t>
+          <t>-51,78; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 0,0</t>
+          <t>-21,21; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 30,78</t>
+          <t>-20,49; 33,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 53,76</t>
+          <t>-21,69; 59,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 29,18</t>
+          <t>-7,16; 31,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 15,58</t>
+          <t>-3,91; 15,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 41,46</t>
+          <t>-7,23; 44,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 18,32</t>
+          <t>-3,91; 18,16</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 14,65</t>
+          <t>-6,94; 15,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,0</t>
+          <t>-6,49; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,0</t>
+          <t>-15,85; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 17,03</t>
+          <t>-7,13; 19,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,0</t>
+          <t>-6,49; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,0</t>
+          <t>-15,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,98</t>
+          <t>-1,77; 14,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,38</t>
+          <t>-2,83; 5,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,48</t>
+          <t>-3,19; 7,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,49</t>
+          <t>-1,81; 17,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 6,84</t>
+          <t>-2,84; 6,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,15</t>
+          <t>-3,21; 8,47</t>
         </is>
       </c>
     </row>
